--- a/Document/Testcase/Admin_SystemTest.xlsx
+++ b/Document/Testcase/Admin_SystemTest.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Logout" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Blockorunblock manager" sheetId="15" r:id="rId14"/>
     <sheet name="Change Award" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1227,7 +1227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -1665,18 +1665,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1685,9 +1676,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1699,9 +1687,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1710,9 +1695,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1728,10 +1710,40 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1740,9 +1752,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1753,12 +1762,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1766,6 +1769,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1782,12 +1788,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1884,6 +1884,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1919,6 +1936,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2116,223 +2150,223 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="39">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <f>COUNTIF(F$10:H$1012,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="28">
         <v>1</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="7.5" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="38.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" ht="108" customHeight="1">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="F12" s="12"/>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18">
         <v>43074</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C11:J11"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
@@ -2370,251 +2404,251 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="26.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <f>COUNTIF(F$10:H$1004,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="28">
         <v>2</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="38.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="4"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="117" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="F12" s="19"/>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18">
         <v>43075</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="90">
-      <c r="A13" s="39"/>
-      <c r="B13" s="21">
+      <c r="A13" s="41"/>
+      <c r="B13" s="15">
         <v>2</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="24">
+      <c r="F13" s="19"/>
+      <c r="G13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="18">
         <v>43075</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2641,7 +2675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2661,234 +2695,234 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <f>COUNTIF(F$10:H$1003,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="28">
         <v>1</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="38.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="4"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="110.25" customHeight="1">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="F12" s="19"/>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18">
         <v>43075</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C11:J11"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
@@ -2925,277 +2959,277 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <f>COUNTIF(F$10:H$1003,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="28">
         <v>3</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="38.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="4"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="108" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="F12" s="19"/>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18">
         <v>43075</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="75">
-      <c r="A13" s="40"/>
-      <c r="B13" s="21">
+      <c r="A13" s="42"/>
+      <c r="B13" s="15">
         <v>2</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="24">
+      <c r="F13" s="19"/>
+      <c r="G13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="18">
         <v>43075</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="92.25" customHeight="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="21">
+      <c r="A14" s="41"/>
+      <c r="B14" s="15">
         <v>3</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="24">
+      <c r="F14" s="19"/>
+      <c r="G14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="18">
         <v>43075</v>
       </c>
-      <c r="J14" s="21"/>
+      <c r="J14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3241,277 +3275,277 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <f>COUNTIF(F$10:H$1002,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="28">
         <v>3</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="1.5" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="36" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="41" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="4"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="135.75" customHeight="1">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="F12" s="19"/>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18">
         <v>43075</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="96.75" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="21">
+      <c r="A13" s="38"/>
+      <c r="B13" s="15">
         <v>2</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="24">
+      <c r="F13" s="19"/>
+      <c r="G13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="18">
         <v>43075</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="112.5" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="21">
+      <c r="A14" s="39"/>
+      <c r="B14" s="15">
         <v>3</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="24">
+      <c r="F14" s="19"/>
+      <c r="G14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="18">
         <v>43075</v>
       </c>
-      <c r="J14" s="21"/>
+      <c r="J14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3559,251 +3593,251 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="26.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <f>COUNTIF(F$10:H$1002,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="28">
         <v>2</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="25.5">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="4"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="175.5" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="F12" s="19"/>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18">
         <v>43075</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="142.5" customHeight="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="21">
+      <c r="A13" s="41"/>
+      <c r="B13" s="15">
         <v>2</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="24">
+      <c r="F13" s="19"/>
+      <c r="G13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="18">
         <v>43075</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3852,251 +3886,251 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="39" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <f>COUNTIF(F$10:H$1002,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="28">
         <v>2</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="63.75" customHeight="1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="4"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="128.25" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="F12" s="19"/>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18">
         <v>43075</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="60">
-      <c r="A13" s="39"/>
-      <c r="B13" s="21">
+      <c r="A13" s="41"/>
+      <c r="B13" s="15">
         <v>2</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="24">
+      <c r="F13" s="19"/>
+      <c r="G13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="18">
         <v>43075</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4144,277 +4178,277 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="39" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <f>COUNTIF(F$10:H$1011,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="28">
         <v>3</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="38.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="4"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="135.75" customHeight="1">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="F12" s="19"/>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18">
         <v>43075</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="75">
-      <c r="A13" s="27"/>
-      <c r="B13" s="21">
+      <c r="A13" s="31"/>
+      <c r="B13" s="15">
         <v>2</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="24">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="18">
         <v>43075</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="86.25" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="21">
+      <c r="A14" s="32"/>
+      <c r="B14" s="15">
         <v>3</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="24">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="18">
         <v>43075</v>
       </c>
-      <c r="J14" s="21"/>
+      <c r="J14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4461,277 +4495,277 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <f>COUNTIF(F$10:H$1011,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="28">
         <v>3</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="12" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="13.5" hidden="1" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="14.25" hidden="1" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="39.75" customHeight="1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="4"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="98.25" customHeight="1">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="F12" s="19"/>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18">
         <v>43075</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="75">
-      <c r="A13" s="27"/>
-      <c r="B13" s="21">
+      <c r="A13" s="31"/>
+      <c r="B13" s="15">
         <v>2</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="24">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="18">
         <v>43075</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="90">
-      <c r="A14" s="28"/>
-      <c r="B14" s="21">
+      <c r="A14" s="32"/>
+      <c r="B14" s="15">
         <v>3</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="24">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="18">
         <v>43075</v>
       </c>
-      <c r="J14" s="21"/>
+      <c r="J14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4776,235 +4810,235 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <f>COUNTIF(F$10:H$1013,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="28">
         <v>1</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="63.75">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="4"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="90">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18">
         <v>43075</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="4"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C11:J11"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
@@ -5027,169 +5061,169 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="18" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="4" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="11.28515625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="18.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="11.28515625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <f>COUNTIF(F$10:H$1013,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="28">
         <v>1</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="10" spans="1:10" ht="63.75">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" ht="98.25" customHeight="1">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18">
         <v>43075</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C11:J11"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
@@ -5226,306 +5260,306 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <f>COUNTIF(F$10:H$1011,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="28">
         <v>3</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="63.75">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="4"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="90">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="F12" s="21"/>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18">
         <v>43075</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="35"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="1:11" ht="60">
-      <c r="A13" s="27"/>
-      <c r="B13" s="21">
+      <c r="A13" s="31"/>
+      <c r="B13" s="15">
         <v>2</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="24">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="18">
         <v>43075</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="35"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" spans="1:11" ht="75.75" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="21">
+      <c r="A14" s="32"/>
+      <c r="B14" s="15">
         <v>3</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="24">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="18">
         <v>43075</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="35"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5573,277 +5607,277 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <f>COUNTIF(F$10:H$1008,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="28">
         <v>2</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="38.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="4"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="192.75" customHeight="1">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="F12" s="19"/>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18">
         <v>43075</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="86.25" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="21">
+      <c r="A13" s="37"/>
+      <c r="B13" s="15">
         <v>2</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="24">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="18">
         <v>43075</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="67.5" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="21">
+      <c r="A14" s="37"/>
+      <c r="B14" s="15">
         <v>3</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="24">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="18">
         <v>43075</v>
       </c>
-      <c r="J14" s="21"/>
+      <c r="J14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5891,329 +5925,329 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="26.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>5</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <f>COUNTIF(F$10:H$1008,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="28">
         <v>5</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="38.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="4"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="116.25" customHeight="1">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="F12" s="19"/>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18">
         <v>43075</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="93.75" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="21">
+      <c r="A13" s="38"/>
+      <c r="B13" s="15">
         <v>2</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="24">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="18">
         <v>43075</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="105">
-      <c r="A14" s="37"/>
-      <c r="B14" s="21">
+      <c r="A14" s="38"/>
+      <c r="B14" s="15">
         <v>3</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="24">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="18">
         <v>43075</v>
       </c>
-      <c r="J14" s="21"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:11" ht="105">
-      <c r="A15" s="37"/>
-      <c r="B15" s="21">
+      <c r="A15" s="38"/>
+      <c r="B15" s="15">
         <v>4</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="24">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="18">
         <v>43075</v>
       </c>
-      <c r="J15" s="21"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:11" ht="105">
-      <c r="A16" s="38"/>
-      <c r="B16" s="21">
+      <c r="A16" s="39"/>
+      <c r="B16" s="15">
         <v>5</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="24">
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="18">
         <v>43075</v>
       </c>
-      <c r="J16" s="21"/>
+      <c r="J16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6240,7 +6274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -6261,303 +6295,303 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="26.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <f>COUNTIF(F$10:H$1007,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="28">
         <v>4</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="51">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="4"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="150" customHeight="1">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="F12" s="19"/>
+      <c r="G12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18">
         <v>43075</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="164.25" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="21">
+      <c r="A13" s="37"/>
+      <c r="B13" s="15">
         <v>2</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="24">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="18">
         <v>43075</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="173.25" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="21">
+      <c r="A14" s="37"/>
+      <c r="B14" s="15">
         <v>3</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="24">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="18">
         <v>43075</v>
       </c>
-      <c r="J14" s="21"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:11" ht="125.25" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="21">
+      <c r="A15" s="37"/>
+      <c r="B15" s="15">
         <v>4</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="24">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="18">
         <v>43075</v>
       </c>
-      <c r="J15" s="21"/>
+      <c r="J15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
